--- a/Data/MappingSheet.xlsx
+++ b/Data/MappingSheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anand\Development\KasTech\AR2.0\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\UiPath\AR2.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15972247-47FE-49E3-BC77-572CDE2115AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6FF7FD27-B0C5-47E5-9336-D608EBC8C0C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bank_Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Remittance_Report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>FolderPath</t>
   </si>
@@ -42,30 +42,15 @@
     <t>FileType</t>
   </si>
   <si>
-    <t>C:\Users\ELCOT\Desktop\File Path\ARI</t>
-  </si>
-  <si>
-    <t>C:\Users\ELCOT\Desktop\File Path\Enterprise</t>
-  </si>
-  <si>
     <t>Company name</t>
   </si>
   <si>
     <t>Biller</t>
   </si>
   <si>
-    <t>AUTO RENTALS INC</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>Client Name</t>
   </si>
   <si>
-    <t>Canteen Vending (ARI)</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
@@ -75,13 +60,28 @@
     <t>Freddy</t>
   </si>
   <si>
-    <t>PDF</t>
+    <t>Element_Test</t>
+  </si>
+  <si>
+    <t>PNC Bank</t>
+  </si>
+  <si>
+    <t>Bridge Bank</t>
+  </si>
+  <si>
+    <t>Bank Report</t>
+  </si>
+  <si>
+    <t>C:\Users\Hp\Documents\UiPath\AR2.0\Data\Input\RemittanceReport\</t>
+  </si>
+  <si>
+    <t>C:\Users\Hp\Documents\UiPath\AR2.0\Data\Input\BankReport\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,12 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -460,24 +458,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338F1132-FC13-4A37-80DE-2BB0C0961DB8}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -486,44 +536,44 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
